--- a/Documents/Timeline(draft).xlsx
+++ b/Documents/Timeline(draft).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepjyoth\Desktop\CDAC_Project_group_6\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F282271A-8BFB-421E-AC8B-FAF47C9FB7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B24D5B-9ECD-483E-81CF-61206ABF631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,17 +465,17 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5546875" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="60.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
